--- a/Assets/Resources/EquipmentData.xlsx
+++ b/Assets/Resources/EquipmentData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tes\teto\Assets\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\tetoRpg\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED53758A-B516-4FD0-AF31-19AAAB329E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6825D02F-47DE-404D-B031-2214ADBAE32B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6FFDE663-C286-4C8A-9355-4DAED235F391}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6FFDE663-C286-4C8A-9355-4DAED235F391}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="289">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -56,60 +56,856 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Ae</t>
-    <phoneticPr fontId="1"/>
+    <t>We01</t>
   </si>
   <si>
     <t>普通の剣</t>
-    <rPh sb="0" eb="2">
-      <t>フツウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ケン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Sh</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>We02</t>
+  </si>
+  <si>
+    <t>ホネこんぼう</t>
+  </si>
+  <si>
+    <t>We03</t>
+  </si>
+  <si>
+    <t>つるはし</t>
+  </si>
+  <si>
+    <t>We04</t>
+  </si>
+  <si>
+    <t>おおきな木刀</t>
+  </si>
+  <si>
+    <t>We05</t>
+  </si>
+  <si>
+    <t>兵士の短剣</t>
+  </si>
+  <si>
+    <t>We06</t>
+  </si>
+  <si>
+    <t>包丁</t>
+  </si>
+  <si>
+    <t>We07</t>
+  </si>
+  <si>
+    <t>丈夫な薙刀</t>
+  </si>
+  <si>
+    <t>We08</t>
+  </si>
+  <si>
+    <t>下っ端のナイフ</t>
+  </si>
+  <si>
+    <t>We09</t>
+  </si>
+  <si>
+    <t>ひかりのつるぎ</t>
+  </si>
+  <si>
+    <t>We10</t>
+  </si>
+  <si>
+    <t>ピコピコハンマー</t>
+  </si>
+  <si>
+    <t>We11</t>
+  </si>
+  <si>
+    <t>盗賊のナイフ</t>
+  </si>
+  <si>
+    <t>We12</t>
+  </si>
+  <si>
+    <t>いやしのレイピア</t>
+  </si>
+  <si>
+    <t>We13</t>
+  </si>
+  <si>
+    <t>アサシンダガー</t>
+  </si>
+  <si>
+    <t>We14</t>
+  </si>
+  <si>
+    <t>魔物の爪</t>
+  </si>
+  <si>
+    <t>We15</t>
+  </si>
+  <si>
+    <t>アイアンソード</t>
+  </si>
+  <si>
+    <t>We16</t>
+  </si>
+  <si>
+    <t>兵士の剣</t>
+  </si>
+  <si>
+    <t>We17</t>
+  </si>
+  <si>
+    <t>ガラスの大剣</t>
+  </si>
+  <si>
+    <t>We18</t>
+  </si>
+  <si>
+    <t>巨大トマホーク</t>
+  </si>
+  <si>
+    <t>We19</t>
+  </si>
+  <si>
+    <t>モーニングスター</t>
+  </si>
+  <si>
+    <t>We20</t>
+  </si>
+  <si>
+    <t>エネルギーガントレット</t>
+  </si>
+  <si>
+    <t>We21</t>
+  </si>
+  <si>
+    <t>ヴァンパイアソード</t>
+  </si>
+  <si>
+    <t>We22</t>
+  </si>
+  <si>
+    <t>ゴーレムハンマー</t>
+  </si>
+  <si>
+    <t>We23</t>
+  </si>
+  <si>
+    <t>サムライソード</t>
+  </si>
+  <si>
+    <t>We24</t>
+  </si>
+  <si>
+    <t>近衛兵の両手剣</t>
+  </si>
+  <si>
+    <t>We25</t>
+  </si>
+  <si>
+    <t>天使のレイピア</t>
+  </si>
+  <si>
+    <t>We26</t>
+  </si>
+  <si>
+    <t>ロボットドリル</t>
+  </si>
+  <si>
+    <t>We27</t>
+  </si>
+  <si>
+    <t>悪魔スピア</t>
+  </si>
+  <si>
+    <t>We28</t>
+  </si>
+  <si>
+    <t>ミスリルダガー</t>
+  </si>
+  <si>
+    <t>We29</t>
+  </si>
+  <si>
+    <t>海賊カトラス</t>
+  </si>
+  <si>
+    <t>We30</t>
+  </si>
+  <si>
+    <t>クラーケンスレイヤー</t>
+  </si>
+  <si>
+    <t>We31</t>
+  </si>
+  <si>
+    <t>ブラッドファング</t>
+  </si>
+  <si>
+    <t>We32</t>
+  </si>
+  <si>
+    <t>契約の鎌</t>
+  </si>
+  <si>
+    <t>We33</t>
+  </si>
+  <si>
+    <t>マサムネ</t>
+  </si>
+  <si>
+    <t>We34</t>
+  </si>
+  <si>
+    <t>ミリタリーナイフ</t>
+  </si>
+  <si>
+    <t>We35</t>
+  </si>
+  <si>
+    <t>グラビティメイス</t>
+  </si>
+  <si>
+    <t>We36</t>
+  </si>
+  <si>
+    <t>クリスタルブレード</t>
+  </si>
+  <si>
+    <t>We37</t>
+  </si>
+  <si>
+    <t>祝福のレイピア</t>
+  </si>
+  <si>
+    <t>We38</t>
+  </si>
+  <si>
+    <t>まぼろしの大槍</t>
+  </si>
+  <si>
+    <t>We39</t>
+  </si>
+  <si>
+    <t>でんせつの大剣</t>
+  </si>
+  <si>
+    <t>We40</t>
+  </si>
+  <si>
+    <t>アマノムラクモ</t>
+  </si>
+  <si>
+    <t>We41</t>
+  </si>
+  <si>
+    <t>ハルバード</t>
+  </si>
+  <si>
+    <t>We42</t>
+  </si>
+  <si>
+    <t>はやぶさの剣</t>
+  </si>
+  <si>
+    <t>We43</t>
+  </si>
+  <si>
+    <t>アトムウェポン</t>
+  </si>
+  <si>
+    <t>We44</t>
+  </si>
+  <si>
+    <t>インフィニティエッジ</t>
+  </si>
+  <si>
+    <t>We45</t>
+  </si>
+  <si>
+    <t>ドラゴンクロー</t>
+  </si>
+  <si>
+    <t>We46</t>
+  </si>
+  <si>
+    <t>マスターソード</t>
+  </si>
+  <si>
+    <t>We47</t>
+  </si>
+  <si>
+    <t>エクスカリバー</t>
+  </si>
+  <si>
+    <t>Sh01</t>
   </si>
   <si>
     <t>普通の盾</t>
-    <rPh sb="0" eb="2">
-      <t>フツウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>タテ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>He</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sh02</t>
+  </si>
+  <si>
+    <t>旅立ちの盾</t>
+  </si>
+  <si>
+    <t>Sh03</t>
+  </si>
+  <si>
+    <t>うろこの盾</t>
+  </si>
+  <si>
+    <t>Sh04</t>
+  </si>
+  <si>
+    <t>アイアンシールド</t>
+  </si>
+  <si>
+    <t>Sh05</t>
+  </si>
+  <si>
+    <t>しんぴの盾</t>
+  </si>
+  <si>
+    <t>Sh06</t>
+  </si>
+  <si>
+    <t>冒険者の盾</t>
+  </si>
+  <si>
+    <t>Sh07</t>
+  </si>
+  <si>
+    <t>戦士の盾</t>
+  </si>
+  <si>
+    <t>Sh08</t>
+  </si>
+  <si>
+    <t>シルバーシールド</t>
+  </si>
+  <si>
+    <t>Sh09</t>
+  </si>
+  <si>
+    <t>ミラーシールド</t>
+  </si>
+  <si>
+    <t>Sh10</t>
+  </si>
+  <si>
+    <t>ひかりの盾</t>
+  </si>
+  <si>
+    <t>Sh11</t>
+  </si>
+  <si>
+    <t>いやしのおまもり</t>
+  </si>
+  <si>
+    <t>Sh12</t>
+  </si>
+  <si>
+    <t>アサシンマント</t>
+  </si>
+  <si>
+    <t>Sh13</t>
+  </si>
+  <si>
+    <t>兵士の盾</t>
+  </si>
+  <si>
+    <t>Sh14</t>
+  </si>
+  <si>
+    <t>ガラスの大楯</t>
+  </si>
+  <si>
+    <t>Sh15</t>
+  </si>
+  <si>
+    <t>エネルギーシールド</t>
+  </si>
+  <si>
+    <t>Sh16</t>
+  </si>
+  <si>
+    <t>ジャイアントベルト</t>
+  </si>
+  <si>
+    <t>Sh17</t>
+  </si>
+  <si>
+    <t>サムライの篭手</t>
+  </si>
+  <si>
+    <t>Sh18</t>
+  </si>
+  <si>
+    <t>近衛兵の大楯</t>
+  </si>
+  <si>
+    <t>Sh19</t>
+  </si>
+  <si>
+    <t>天使のおまもり</t>
+  </si>
+  <si>
+    <t>Sh20</t>
+  </si>
+  <si>
+    <t>ロボットアーム</t>
+  </si>
+  <si>
+    <t>Sh21</t>
+  </si>
+  <si>
+    <t>悪魔のおまもり</t>
+  </si>
+  <si>
+    <t>Sh22</t>
+  </si>
+  <si>
+    <t>竜殺しの盾</t>
+  </si>
+  <si>
+    <t>Sh23</t>
+  </si>
+  <si>
+    <t>契約の指輪</t>
+  </si>
+  <si>
+    <t>Sh24</t>
+  </si>
+  <si>
+    <t>フライパン</t>
+  </si>
+  <si>
+    <t>Sh25</t>
+  </si>
+  <si>
+    <t>クリスタルバックラー</t>
+  </si>
+  <si>
+    <t>Sh26</t>
+  </si>
+  <si>
+    <t>祝福のおまもり</t>
+  </si>
+  <si>
+    <t>Sh27</t>
+  </si>
+  <si>
+    <t>まぼろしの盾</t>
+  </si>
+  <si>
+    <t>Sh28</t>
+  </si>
+  <si>
+    <t>でんせつの盾</t>
+  </si>
+  <si>
+    <t>Sh29</t>
+  </si>
+  <si>
+    <t>ドラゴンの大楯</t>
+  </si>
+  <si>
+    <t>Sh30</t>
+  </si>
+  <si>
+    <t>英雄の盾</t>
+  </si>
+  <si>
+    <t>Sh31</t>
+  </si>
+  <si>
+    <t>イージスの盾</t>
+  </si>
+  <si>
+    <t>Sh32</t>
+  </si>
+  <si>
+    <t>勇者の盾</t>
+  </si>
+  <si>
+    <t>He01</t>
   </si>
   <si>
     <t>普通の兜</t>
-    <rPh sb="0" eb="2">
-      <t>フツウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>カブト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Ar</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>普通の服</t>
-    <rPh sb="0" eb="2">
-      <t>フツウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>フク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>He02</t>
+  </si>
+  <si>
+    <t>旅立ちの帽子</t>
+  </si>
+  <si>
+    <t>He03</t>
+  </si>
+  <si>
+    <t>うろこのかぶと</t>
+  </si>
+  <si>
+    <t>He04</t>
+  </si>
+  <si>
+    <t>アイアンヘルム</t>
+  </si>
+  <si>
+    <t>He05</t>
+  </si>
+  <si>
+    <t>しんぴの耳飾り</t>
+  </si>
+  <si>
+    <t>He06</t>
+  </si>
+  <si>
+    <t>冒険者の帽子</t>
+  </si>
+  <si>
+    <t>He07</t>
+  </si>
+  <si>
+    <t>戦士の兜</t>
+  </si>
+  <si>
+    <t>He08</t>
+  </si>
+  <si>
+    <t>シルバーヘルム</t>
+  </si>
+  <si>
+    <t>He09</t>
+  </si>
+  <si>
+    <t>ひかりの兜</t>
+  </si>
+  <si>
+    <t>He10</t>
+  </si>
+  <si>
+    <t>盗賊の帽子</t>
+  </si>
+  <si>
+    <t>He11</t>
+  </si>
+  <si>
+    <t>サングラス</t>
+  </si>
+  <si>
+    <t>He12</t>
+  </si>
+  <si>
+    <t>いやしの髪飾り</t>
+  </si>
+  <si>
+    <t>He13</t>
+  </si>
+  <si>
+    <t>アサシンマスク</t>
+  </si>
+  <si>
+    <t>He14</t>
+  </si>
+  <si>
+    <t>おばけハット</t>
+  </si>
+  <si>
+    <t>He15</t>
+  </si>
+  <si>
+    <t>兵士の兜</t>
+  </si>
+  <si>
+    <t>He16</t>
+  </si>
+  <si>
+    <t>ガラスの兜</t>
+  </si>
+  <si>
+    <t>He18</t>
+  </si>
+  <si>
+    <t>エネルギーヘルム</t>
+  </si>
+  <si>
+    <t>He19</t>
+  </si>
+  <si>
+    <t>サムライの兜</t>
+  </si>
+  <si>
+    <t>He20</t>
+  </si>
+  <si>
+    <t>近衛兵の兜</t>
+  </si>
+  <si>
+    <t>He21</t>
+  </si>
+  <si>
+    <t>天使のリング</t>
+  </si>
+  <si>
+    <t>He22</t>
+  </si>
+  <si>
+    <t>ロボットヘッド</t>
+  </si>
+  <si>
+    <t>He23</t>
+  </si>
+  <si>
+    <t>悪魔のリング</t>
+  </si>
+  <si>
+    <t>He24</t>
+  </si>
+  <si>
+    <t>海賊帽子</t>
+  </si>
+  <si>
+    <t>He25</t>
+  </si>
+  <si>
+    <t>竜殺しの兜</t>
+  </si>
+  <si>
+    <t>He26</t>
+  </si>
+  <si>
+    <t>契約の冠</t>
+  </si>
+  <si>
+    <t>He27</t>
+  </si>
+  <si>
+    <t>ミリタリーヘルム</t>
+  </si>
+  <si>
+    <t>He28</t>
+  </si>
+  <si>
+    <t>祝福の髪飾り</t>
+  </si>
+  <si>
+    <t>He29</t>
+  </si>
+  <si>
+    <t>まぼろしの兜</t>
+  </si>
+  <si>
+    <t>He30</t>
+  </si>
+  <si>
+    <t>でんせつの兜</t>
+  </si>
+  <si>
+    <t>He31</t>
+  </si>
+  <si>
+    <t>ドラゴンの角</t>
+  </si>
+  <si>
+    <t>He32</t>
+  </si>
+  <si>
+    <t>英雄の兜</t>
+  </si>
+  <si>
+    <t>He33</t>
+  </si>
+  <si>
+    <t>勇者の兜</t>
+  </si>
+  <si>
+    <t>Ar01</t>
+  </si>
+  <si>
+    <t>普通の鎧</t>
+  </si>
+  <si>
+    <t>Ar02</t>
+  </si>
+  <si>
+    <t>旅立ちの服</t>
+  </si>
+  <si>
+    <t>Ar03</t>
+  </si>
+  <si>
+    <t>うろこの服</t>
+  </si>
+  <si>
+    <t>Ar04</t>
+  </si>
+  <si>
+    <t>アイアンメイル</t>
+  </si>
+  <si>
+    <t>Ar05</t>
+  </si>
+  <si>
+    <t>しんぴの鎧</t>
+  </si>
+  <si>
+    <t>Ar06</t>
+  </si>
+  <si>
+    <t>冒険者の服</t>
+  </si>
+  <si>
+    <t>Ar07</t>
+  </si>
+  <si>
+    <t>戦士の鎧</t>
+  </si>
+  <si>
+    <t>Ar08</t>
+  </si>
+  <si>
+    <t>シルバーメイル</t>
+  </si>
+  <si>
+    <t>Ar09</t>
+  </si>
+  <si>
+    <t>ひかりの鎧</t>
+  </si>
+  <si>
+    <t>Ar10</t>
+  </si>
+  <si>
+    <t>盗賊の服</t>
+  </si>
+  <si>
+    <t>Ar11</t>
+  </si>
+  <si>
+    <t>いやしのはごろも</t>
+  </si>
+  <si>
+    <t>Ar12</t>
+  </si>
+  <si>
+    <t>おばけローブ</t>
+  </si>
+  <si>
+    <t>Ar13</t>
+  </si>
+  <si>
+    <t>兵士の鎧</t>
+  </si>
+  <si>
+    <t>Ar14</t>
+  </si>
+  <si>
+    <t>ガラスの鎧</t>
+  </si>
+  <si>
+    <t>Ar16</t>
+  </si>
+  <si>
+    <t>エネルギーアーマー</t>
+  </si>
+  <si>
+    <t>Ar17</t>
+  </si>
+  <si>
+    <t>サムライの鎧</t>
+  </si>
+  <si>
+    <t>Ar18</t>
+  </si>
+  <si>
+    <t>近衛兵の鎧</t>
+  </si>
+  <si>
+    <t>Ar19</t>
+  </si>
+  <si>
+    <t>天使のはごろも</t>
+  </si>
+  <si>
+    <t>Ar20</t>
+  </si>
+  <si>
+    <t>ロボットボディ</t>
+  </si>
+  <si>
+    <t>Ar21</t>
+  </si>
+  <si>
+    <t>悪魔のうろこ</t>
+  </si>
+  <si>
+    <t>Ar22</t>
+  </si>
+  <si>
+    <t>海賊の服</t>
+  </si>
+  <si>
+    <t>Ar23</t>
+  </si>
+  <si>
+    <t>竜殺しの鎧</t>
+  </si>
+  <si>
+    <t>Ar24</t>
+  </si>
+  <si>
+    <t>契約のローブ</t>
+  </si>
+  <si>
+    <t>Ar25</t>
+  </si>
+  <si>
+    <t>ミリタリーアーマー</t>
+  </si>
+  <si>
+    <t>Ar26</t>
+  </si>
+  <si>
+    <t>クリスタルメイル</t>
+  </si>
+  <si>
+    <t>Ar27</t>
+  </si>
+  <si>
+    <t>祝福のはごろも</t>
+  </si>
+  <si>
+    <t>Ar28</t>
+  </si>
+  <si>
+    <t>まぼろしの鎧</t>
+  </si>
+  <si>
+    <t>Ar29</t>
+  </si>
+  <si>
+    <t>でんせつの鎧</t>
+  </si>
+  <si>
+    <t>Ar30</t>
+  </si>
+  <si>
+    <t>ドラゴンのうろこ</t>
+  </si>
+  <si>
+    <t>Ar31</t>
+  </si>
+  <si>
+    <t>英雄の鎧</t>
+  </si>
+  <si>
+    <t>Ar32</t>
+  </si>
+  <si>
+    <t>勇者の鎧</t>
   </si>
 </sst>
 </file>
@@ -473,13 +1269,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFAB384C-DA54-48A6-9D49-F41C36D57A8A}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
@@ -509,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -526,10 +1325,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
@@ -543,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
@@ -560,10 +1359,2356 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>40</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>40</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>40</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>40</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>30</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>40</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>40</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>50</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>55</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>70</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>80</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>60</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>70</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>80</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>70</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>70</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>70</v>
+      </c>
+      <c r="E23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>90</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>120</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26">
+        <v>10</v>
+      </c>
+      <c r="D26">
+        <v>100</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>120</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>150</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>130</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>120</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>140</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>110</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>180</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>130</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>150</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>140</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>120</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38">
+        <v>20</v>
+      </c>
+      <c r="D38">
+        <v>140</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>140</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>160</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>150</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>190</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>150</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44">
+        <v>50</v>
+      </c>
+      <c r="D44">
+        <v>230</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>210</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>280</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>260</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>300</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50">
+        <v>5</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51">
+        <v>5</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>105</v>
+      </c>
+      <c r="B52" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52">
+        <v>10</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53">
+        <v>10</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>109</v>
+      </c>
+      <c r="B54" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54">
+        <v>10</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>111</v>
+      </c>
+      <c r="B55" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55">
+        <v>10</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>113</v>
+      </c>
+      <c r="B56" t="s">
+        <v>114</v>
+      </c>
+      <c r="C56">
+        <v>20</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>115</v>
+      </c>
+      <c r="B57" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57">
+        <v>10</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>117</v>
+      </c>
+      <c r="B58" t="s">
+        <v>118</v>
+      </c>
+      <c r="C58">
+        <v>20</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>119</v>
+      </c>
+      <c r="B59" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59">
+        <v>30</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
+        <v>121</v>
+      </c>
+      <c r="B60" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60">
+        <v>30</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>123</v>
+      </c>
+      <c r="B61" t="s">
+        <v>124</v>
+      </c>
+      <c r="C61">
+        <v>30</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>125</v>
+      </c>
+      <c r="B62" t="s">
+        <v>126</v>
+      </c>
+      <c r="C62">
+        <v>20</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>127</v>
+      </c>
+      <c r="B63" t="s">
+        <v>128</v>
+      </c>
+      <c r="C63">
+        <v>30</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
+        <v>129</v>
+      </c>
+      <c r="B64" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64">
+        <v>100</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
+        <v>131</v>
+      </c>
+      <c r="B65" t="s">
+        <v>132</v>
+      </c>
+      <c r="C65">
+        <v>40</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
+        <v>133</v>
+      </c>
+      <c r="B66" t="s">
+        <v>134</v>
+      </c>
+      <c r="C66">
+        <v>50</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
+        <v>135</v>
+      </c>
+      <c r="B67" t="s">
+        <v>136</v>
+      </c>
+      <c r="C67">
+        <v>50</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
+        <v>137</v>
+      </c>
+      <c r="B68" t="s">
+        <v>138</v>
+      </c>
+      <c r="C68">
+        <v>55</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A69" t="s">
+        <v>139</v>
+      </c>
+      <c r="B69" t="s">
+        <v>140</v>
+      </c>
+      <c r="C69">
+        <v>55</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
+        <v>141</v>
+      </c>
+      <c r="B70" t="s">
+        <v>142</v>
+      </c>
+      <c r="C70">
+        <v>40</v>
+      </c>
+      <c r="D70">
+        <v>10</v>
+      </c>
+      <c r="E70">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A71" t="s">
+        <v>143</v>
+      </c>
+      <c r="B71" t="s">
+        <v>144</v>
+      </c>
+      <c r="C71">
+        <v>80</v>
+      </c>
+      <c r="D71">
+        <v>10</v>
+      </c>
+      <c r="E71">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A72" t="s">
+        <v>145</v>
+      </c>
+      <c r="B72" t="s">
+        <v>146</v>
+      </c>
+      <c r="C72">
+        <v>30</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
+        <v>147</v>
+      </c>
+      <c r="B73" t="s">
+        <v>148</v>
+      </c>
+      <c r="C73">
+        <v>40</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
+        <v>149</v>
+      </c>
+      <c r="B74" t="s">
+        <v>150</v>
+      </c>
+      <c r="C74">
+        <v>60</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A75" t="s">
+        <v>151</v>
+      </c>
+      <c r="B75" t="s">
+        <v>152</v>
+      </c>
+      <c r="C75">
+        <v>60</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A76" t="s">
+        <v>153</v>
+      </c>
+      <c r="B76" t="s">
+        <v>154</v>
+      </c>
+      <c r="C76">
+        <v>60</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A77" t="s">
+        <v>155</v>
+      </c>
+      <c r="B77" t="s">
+        <v>156</v>
+      </c>
+      <c r="C77">
+        <v>60</v>
+      </c>
+      <c r="D77">
+        <v>30</v>
+      </c>
+      <c r="E77">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A78" t="s">
+        <v>157</v>
+      </c>
+      <c r="B78" t="s">
+        <v>158</v>
+      </c>
+      <c r="C78">
+        <v>70</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A79" t="s">
+        <v>159</v>
+      </c>
+      <c r="B79" t="s">
+        <v>160</v>
+      </c>
+      <c r="C79">
+        <v>50</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A80" t="s">
+        <v>161</v>
+      </c>
+      <c r="B80" t="s">
+        <v>162</v>
+      </c>
+      <c r="C80">
+        <v>80</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A81" t="s">
+        <v>163</v>
+      </c>
+      <c r="B81" t="s">
+        <v>164</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A82" t="s">
+        <v>165</v>
+      </c>
+      <c r="B82" t="s">
+        <v>166</v>
+      </c>
+      <c r="C82">
+        <v>5</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A83" t="s">
+        <v>167</v>
+      </c>
+      <c r="B83" t="s">
+        <v>168</v>
+      </c>
+      <c r="C83">
+        <v>5</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A84" t="s">
+        <v>169</v>
+      </c>
+      <c r="B84" t="s">
+        <v>170</v>
+      </c>
+      <c r="C84">
+        <v>10</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A85" t="s">
+        <v>171</v>
+      </c>
+      <c r="B85" t="s">
+        <v>172</v>
+      </c>
+      <c r="C85">
+        <v>10</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A86" t="s">
+        <v>173</v>
+      </c>
+      <c r="B86" t="s">
+        <v>174</v>
+      </c>
+      <c r="C86">
+        <v>10</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A87" t="s">
+        <v>175</v>
+      </c>
+      <c r="B87" t="s">
+        <v>176</v>
+      </c>
+      <c r="C87">
+        <v>10</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+      <c r="E87">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A88" t="s">
+        <v>177</v>
+      </c>
+      <c r="B88" t="s">
+        <v>178</v>
+      </c>
+      <c r="C88">
+        <v>20</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A89" t="s">
+        <v>179</v>
+      </c>
+      <c r="B89" t="s">
+        <v>180</v>
+      </c>
+      <c r="C89">
+        <v>20</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A90" t="s">
+        <v>181</v>
+      </c>
+      <c r="B90" t="s">
+        <v>182</v>
+      </c>
+      <c r="C90">
+        <v>20</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A91" t="s">
+        <v>183</v>
+      </c>
+      <c r="B91" t="s">
+        <v>184</v>
+      </c>
+      <c r="C91">
+        <v>30</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A92" t="s">
+        <v>185</v>
+      </c>
+      <c r="B92" t="s">
+        <v>186</v>
+      </c>
+      <c r="C92">
+        <v>30</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A93" t="s">
+        <v>187</v>
+      </c>
+      <c r="B93" t="s">
+        <v>188</v>
+      </c>
+      <c r="C93">
+        <v>30</v>
+      </c>
+      <c r="D93">
+        <v>3</v>
+      </c>
+      <c r="E93">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A94" t="s">
+        <v>189</v>
+      </c>
+      <c r="B94" t="s">
+        <v>190</v>
+      </c>
+      <c r="C94">
+        <v>30</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A95" t="s">
+        <v>191</v>
+      </c>
+      <c r="B95" t="s">
+        <v>192</v>
+      </c>
+      <c r="C95">
+        <v>30</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A96" t="s">
+        <v>193</v>
+      </c>
+      <c r="B96" t="s">
+        <v>194</v>
+      </c>
+      <c r="C96">
+        <v>20</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A97" t="s">
+        <v>195</v>
+      </c>
+      <c r="B97" t="s">
+        <v>196</v>
+      </c>
+      <c r="C97">
+        <v>30</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A98" t="s">
+        <v>197</v>
+      </c>
+      <c r="B98" t="s">
+        <v>198</v>
+      </c>
+      <c r="C98">
+        <v>40</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A99" t="s">
+        <v>199</v>
+      </c>
+      <c r="B99" t="s">
+        <v>200</v>
+      </c>
+      <c r="C99">
+        <v>50</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A100" t="s">
+        <v>201</v>
+      </c>
+      <c r="B100" t="s">
+        <v>202</v>
+      </c>
+      <c r="C100">
+        <v>50</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A101" t="s">
+        <v>203</v>
+      </c>
+      <c r="B101" t="s">
+        <v>204</v>
+      </c>
+      <c r="C101">
+        <v>55</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A102" t="s">
+        <v>205</v>
+      </c>
+      <c r="B102" t="s">
+        <v>206</v>
+      </c>
+      <c r="C102">
+        <v>55</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A103" t="s">
+        <v>207</v>
+      </c>
+      <c r="B103" t="s">
+        <v>208</v>
+      </c>
+      <c r="C103">
+        <v>30</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A104" t="s">
+        <v>209</v>
+      </c>
+      <c r="B104" t="s">
+        <v>210</v>
+      </c>
+      <c r="C104">
+        <v>40</v>
+      </c>
+      <c r="D104">
+        <v>10</v>
+      </c>
+      <c r="E104">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A105" t="s">
+        <v>211</v>
+      </c>
+      <c r="B105" t="s">
+        <v>212</v>
+      </c>
+      <c r="C105">
+        <v>80</v>
+      </c>
+      <c r="D105">
+        <v>10</v>
+      </c>
+      <c r="E105">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A106" t="s">
+        <v>213</v>
+      </c>
+      <c r="B106" t="s">
+        <v>214</v>
+      </c>
+      <c r="C106">
+        <v>60</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A107" t="s">
+        <v>215</v>
+      </c>
+      <c r="B107" t="s">
+        <v>216</v>
+      </c>
+      <c r="C107">
+        <v>60</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A108" t="s">
+        <v>217</v>
+      </c>
+      <c r="B108" t="s">
+        <v>218</v>
+      </c>
+      <c r="C108">
+        <v>60</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A109" t="s">
+        <v>219</v>
+      </c>
+      <c r="B109" t="s">
+        <v>220</v>
+      </c>
+      <c r="C109">
+        <v>60</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A110" t="s">
+        <v>221</v>
+      </c>
+      <c r="B110" t="s">
+        <v>222</v>
+      </c>
+      <c r="C110">
+        <v>60</v>
+      </c>
+      <c r="D110">
+        <v>30</v>
+      </c>
+      <c r="E110">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A111" t="s">
+        <v>223</v>
+      </c>
+      <c r="B111" t="s">
+        <v>224</v>
+      </c>
+      <c r="C111">
+        <v>70</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A112" t="s">
+        <v>225</v>
+      </c>
+      <c r="B112" t="s">
+        <v>226</v>
+      </c>
+      <c r="C112">
+        <v>80</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A113" t="s">
+        <v>227</v>
+      </c>
+      <c r="B113" t="s">
+        <v>228</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A114" t="s">
+        <v>229</v>
+      </c>
+      <c r="B114" t="s">
+        <v>230</v>
+      </c>
+      <c r="C114">
+        <v>5</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A115" t="s">
+        <v>231</v>
+      </c>
+      <c r="B115" t="s">
+        <v>232</v>
+      </c>
+      <c r="C115">
+        <v>5</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A116" t="s">
+        <v>233</v>
+      </c>
+      <c r="B116" t="s">
+        <v>234</v>
+      </c>
+      <c r="C116">
+        <v>10</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A117" t="s">
+        <v>235</v>
+      </c>
+      <c r="B117" t="s">
+        <v>236</v>
+      </c>
+      <c r="C117">
+        <v>10</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A118" t="s">
+        <v>237</v>
+      </c>
+      <c r="B118" t="s">
+        <v>238</v>
+      </c>
+      <c r="C118">
+        <v>10</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A119" t="s">
+        <v>239</v>
+      </c>
+      <c r="B119" t="s">
+        <v>240</v>
+      </c>
+      <c r="C119">
+        <v>10</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A120" t="s">
+        <v>241</v>
+      </c>
+      <c r="B120" t="s">
+        <v>242</v>
+      </c>
+      <c r="C120">
+        <v>20</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A121" t="s">
+        <v>243</v>
+      </c>
+      <c r="B121" t="s">
+        <v>244</v>
+      </c>
+      <c r="C121">
+        <v>20</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A122" t="s">
+        <v>245</v>
+      </c>
+      <c r="B122" t="s">
+        <v>246</v>
+      </c>
+      <c r="C122">
+        <v>20</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A123" t="s">
+        <v>247</v>
+      </c>
+      <c r="B123" t="s">
+        <v>248</v>
+      </c>
+      <c r="C123">
+        <v>30</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A124" t="s">
+        <v>249</v>
+      </c>
+      <c r="B124" t="s">
+        <v>250</v>
+      </c>
+      <c r="C124">
+        <v>30</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A125" t="s">
+        <v>251</v>
+      </c>
+      <c r="B125" t="s">
+        <v>252</v>
+      </c>
+      <c r="C125">
+        <v>30</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A126" t="s">
+        <v>253</v>
+      </c>
+      <c r="B126" t="s">
+        <v>254</v>
+      </c>
+      <c r="C126">
+        <v>20</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A127" t="s">
+        <v>255</v>
+      </c>
+      <c r="B127" t="s">
+        <v>256</v>
+      </c>
+      <c r="C127">
+        <v>30</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A128" t="s">
+        <v>257</v>
+      </c>
+      <c r="B128" t="s">
+        <v>258</v>
+      </c>
+      <c r="C128">
+        <v>40</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A129" t="s">
+        <v>259</v>
+      </c>
+      <c r="B129" t="s">
+        <v>260</v>
+      </c>
+      <c r="C129">
+        <v>50</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A130" t="s">
+        <v>261</v>
+      </c>
+      <c r="B130" t="s">
+        <v>262</v>
+      </c>
+      <c r="C130">
+        <v>50</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A131" t="s">
+        <v>263</v>
+      </c>
+      <c r="B131" t="s">
+        <v>264</v>
+      </c>
+      <c r="C131">
+        <v>55</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A132" t="s">
+        <v>265</v>
+      </c>
+      <c r="B132" t="s">
+        <v>266</v>
+      </c>
+      <c r="C132">
+        <v>55</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A133" t="s">
+        <v>267</v>
+      </c>
+      <c r="B133" t="s">
+        <v>268</v>
+      </c>
+      <c r="C133">
+        <v>30</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A134" t="s">
+        <v>269</v>
+      </c>
+      <c r="B134" t="s">
+        <v>270</v>
+      </c>
+      <c r="C134">
+        <v>40</v>
+      </c>
+      <c r="D134">
+        <v>10</v>
+      </c>
+      <c r="E134">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A135" t="s">
+        <v>271</v>
+      </c>
+      <c r="B135" t="s">
+        <v>272</v>
+      </c>
+      <c r="C135">
+        <v>80</v>
+      </c>
+      <c r="D135">
+        <v>10</v>
+      </c>
+      <c r="E135">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A136" t="s">
+        <v>273</v>
+      </c>
+      <c r="B136" t="s">
+        <v>274</v>
+      </c>
+      <c r="C136">
+        <v>60</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A137" t="s">
+        <v>275</v>
+      </c>
+      <c r="B137" t="s">
+        <v>276</v>
+      </c>
+      <c r="C137">
+        <v>40</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A138" t="s">
+        <v>277</v>
+      </c>
+      <c r="B138" t="s">
+        <v>278</v>
+      </c>
+      <c r="C138">
+        <v>60</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A139" t="s">
+        <v>279</v>
+      </c>
+      <c r="B139" t="s">
+        <v>280</v>
+      </c>
+      <c r="C139">
+        <v>60</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A140" t="s">
+        <v>281</v>
+      </c>
+      <c r="B140" t="s">
+        <v>282</v>
+      </c>
+      <c r="C140">
+        <v>60</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A141" t="s">
+        <v>283</v>
+      </c>
+      <c r="B141" t="s">
+        <v>284</v>
+      </c>
+      <c r="C141">
+        <v>60</v>
+      </c>
+      <c r="D141">
+        <v>30</v>
+      </c>
+      <c r="E141">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A142" t="s">
+        <v>285</v>
+      </c>
+      <c r="B142" t="s">
+        <v>286</v>
+      </c>
+      <c r="C142">
+        <v>70</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+      <c r="E142">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A143" t="s">
+        <v>287</v>
+      </c>
+      <c r="B143" t="s">
+        <v>288</v>
+      </c>
+      <c r="C143">
+        <v>80</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
